--- a/2des/bcd/aula03/society_dados.xlsx
+++ b/2des/bcd/aula03/society_dados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
   <si>
     <t>CPF</t>
   </si>
@@ -128,12 +128,6 @@
     <t>(14)1640-5670</t>
   </si>
   <si>
-    <t>TER</t>
-  </si>
-  <si>
-    <t>QUA</t>
-  </si>
-  <si>
     <t>QUI</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>SÁB</t>
   </si>
   <si>
-    <t>DOM</t>
-  </si>
-  <si>
     <t>GrupoA</t>
   </si>
   <si>
@@ -164,18 +155,6 @@
     <t>Grupo D</t>
   </si>
   <si>
-    <t>Grupo E</t>
-  </si>
-  <si>
-    <t>Grupo F</t>
-  </si>
-  <si>
-    <t>Grupo G</t>
-  </si>
-  <si>
-    <t>Grupo H</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -185,9 +164,6 @@
     <t>Horário</t>
   </si>
   <si>
-    <t>Terça-feira</t>
-  </si>
-  <si>
     <t>Sábado</t>
   </si>
   <si>
@@ -297,6 +273,9 @@
   </si>
   <si>
     <t>ID_GRUPO</t>
+  </si>
+  <si>
+    <t>Quinta-feira</t>
   </si>
 </sst>
 </file>
@@ -340,11 +319,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,123 +741,123 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,11 +890,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>89</v>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -922,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -930,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -938,7 +918,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -946,7 +926,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -954,7 +934,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -962,7 +942,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -970,7 +950,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,7 +958,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -986,7 +966,7 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,95 +974,95 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1090,7 +1070,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1098,15 +1078,15 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1099,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,22 +1108,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3">
         <v>0.29166666666666669</v>
@@ -1151,10 +1131,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3">
         <v>0.29166666666666669</v>
@@ -1162,24 +1142,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3">
-        <v>0.60416666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -1189,117 +1169,80 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0.41666666666666702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0.47916666666666702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>0.54166666666666696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>0.72916666666666696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0.85416666666666696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>0.91666666666666696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>0.97916666666666696</v>
-      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
